--- a/Assignments/HW2/Data Science Teaching Method.xlsx
+++ b/Assignments/HW2/Data Science Teaching Method.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>80.2</v>
+        <v>77.98999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>75.29000000000001</v>
+        <v>76.89</v>
       </c>
     </row>
     <row r="4">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>71.19</v>
       </c>
     </row>
     <row r="5">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>79.31999999999999</v>
+        <v>81.23</v>
       </c>
     </row>
     <row r="6">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>59.89</v>
+        <v>73.97</v>
       </c>
     </row>
     <row r="7">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>76.43000000000001</v>
+        <v>69.18000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>63.57</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="9">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>73.87</v>
+        <v>81.81999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>76.17</v>
+        <v>69.28</v>
       </c>
     </row>
     <row r="11">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>76.84999999999999</v>
+        <v>62.49</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>72.05</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>88.97</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>79.34999999999999</v>
+        <v>86.23</v>
       </c>
     </row>
     <row r="15">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>83.86</v>
+        <v>73.31999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>77.31999999999999</v>
+        <v>76.79000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>87.55</v>
+        <v>74.62</v>
       </c>
     </row>
     <row r="18">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>91.09999999999999</v>
+        <v>74.34999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>82.16</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>77.34999999999999</v>
+        <v>84.54000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>79.31999999999999</v>
+        <v>73.70999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>73.73999999999999</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>88.62</v>
+        <v>97.06</v>
       </c>
     </row>
     <row r="24">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>78.63</v>
+        <v>83.47</v>
       </c>
     </row>
     <row r="25">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>91.86</v>
+        <v>74.91</v>
       </c>
     </row>
     <row r="26">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>72.8</v>
+        <v>70.47</v>
       </c>
     </row>
     <row r="27">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>91.23</v>
+        <v>83.12</v>
       </c>
     </row>
     <row r="28">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>90.01000000000001</v>
+        <v>88.98999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>69.97</v>
+        <v>83.77</v>
       </c>
     </row>
     <row r="30">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>83.2</v>
+        <v>84.79000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>81.7</v>
+        <v>92.62</v>
       </c>
     </row>
     <row r="32">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>73.88</v>
+        <v>93.11</v>
       </c>
     </row>
     <row r="33">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>78.01000000000001</v>
+        <v>84.92</v>
       </c>
     </row>
     <row r="34">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>77.97</v>
+        <v>84.98</v>
       </c>
     </row>
     <row r="35">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>70.13</v>
+        <v>81.08</v>
       </c>
     </row>
     <row r="36">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>81.7</v>
+        <v>76.16</v>
       </c>
     </row>
     <row r="37">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>83.22</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>73.31999999999999</v>
+        <v>74.03</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>73.89</v>
+        <v>72.84999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>88.61</v>
+        <v>87.87</v>
       </c>
     </row>
     <row r="41">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>69.25</v>
+        <v>80.69</v>
       </c>
     </row>
     <row r="42">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>88.37</v>
+        <v>80.91</v>
       </c>
     </row>
     <row r="43">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>93.51000000000001</v>
+        <v>82.31</v>
       </c>
     </row>
     <row r="44">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>84.53</v>
+        <v>75.69</v>
       </c>
     </row>
     <row r="45">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>88.41</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>93.29000000000001</v>
+        <v>89.03</v>
       </c>
     </row>
     <row r="47">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>79.77</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="48">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>98.18000000000001</v>
+        <v>88.11</v>
       </c>
     </row>
     <row r="49">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>84.81</v>
+        <v>92.19</v>
       </c>
     </row>
     <row r="50">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>89.40000000000001</v>
+        <v>83.95</v>
       </c>
     </row>
     <row r="51">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>85.97</v>
+        <v>91.29000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>91.28</v>
+        <v>91.68000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>100.33</v>
+        <v>86.73999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>91.05</v>
+        <v>90.48</v>
       </c>
     </row>
     <row r="55">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>90.95999999999999</v>
+        <v>101.29</v>
       </c>
     </row>
     <row r="56">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>105.06</v>
+        <v>78.79000000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>91.92</v>
+        <v>94.98999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>87.43000000000001</v>
+        <v>93.47</v>
       </c>
     </row>
     <row r="59">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>76.62</v>
+        <v>86.11</v>
       </c>
     </row>
     <row r="60">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>82.87</v>
+        <v>81.76000000000001</v>
       </c>
     </row>
     <row r="61">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>91.75</v>
+        <v>88.59</v>
       </c>
     </row>
   </sheetData>
